--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E25F1-D80E-4ABC-B7C7-0D72DDE646DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8864C-B112-458B-B226-055CD75301D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Inheritance tree diagram</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>show handling of user input</t>
+  </si>
+  <si>
+    <t>Creature Inheritance tree diagram</t>
+  </si>
+  <si>
+    <t>Creature Inheritance Drawing.png</t>
   </si>
 </sst>
 </file>
@@ -121,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -174,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +472,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,133 +482,137 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8864C-B112-458B-B226-055CD75301D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5440F7B-BE3F-4694-A07B-85CF7BBF74A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Status</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>Creature Inheritance Drawing.png</t>
+  </si>
+  <si>
+    <t>virtual Monster.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>override Shulker.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>override Dragon.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>override Skeleton.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>override Warden.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>override Witch.GetAttackMessage.png</t>
+  </si>
+  <si>
+    <t>UserInterface.ShowTurnDecisions.png</t>
+  </si>
+  <si>
+    <t>UserInterface.DisplayEnumerable Weapons.png</t>
+  </si>
+  <si>
+    <t>UserInterface.DisplayEnumerable.png</t>
   </si>
 </sst>
 </file>
@@ -469,18 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -500,72 +532,102 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5440F7B-BE3F-4694-A07B-85CF7BBF74A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACA1D34-678D-4104-ACBA-C254FD776DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>UserInterface.DisplayEnumerable.png</t>
+  </si>
+  <si>
+    <t>Inventory.GetWeaponsAscending.png</t>
+  </si>
+  <si>
+    <t>Inventory.GetTotalSpellsInInventory.png</t>
+  </si>
+  <si>
+    <t>Item Inheritance Drawing.png</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +581,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -583,13 +593,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,8 +616,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACA1D34-678D-4104-ACBA-C254FD776DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAAFDB5-B05C-4F0C-90A9-8457E8E9CC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +611,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAAFDB5-B05C-4F0C-90A9-8457E8E9CC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6DF49-5220-4D3D-A980-D2EF3D3BD503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Status</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Item Inheritance Drawing.png</t>
+  </si>
+  <si>
+    <t>User displaying the players inventory.png</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6DF49-5220-4D3D-A980-D2EF3D3BD503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9855960-C310-43BD-91A3-77213011BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Status</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>User displaying the players inventory.png</t>
+  </si>
+  <si>
+    <t>User having the functionality to sort the damage of the weapons</t>
+  </si>
+  <si>
+    <t>User Sorted the weapons by descending damage</t>
+  </si>
+  <si>
+    <t>weapons in inventory.png</t>
+  </si>
+  <si>
+    <t>weapons sort by descending damage.png</t>
   </si>
 </sst>
 </file>
@@ -508,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,72 +650,90 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9855960-C310-43BD-91A3-77213011BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6CFD8-952C-42C8-AE52-E64D42D39260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Status</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Screenshot Requirement</t>
   </si>
   <si>
-    <t>Item.CreateSummary</t>
-  </si>
-  <si>
     <t>ICanDamage Interface</t>
   </si>
   <si>
@@ -160,6 +157,24 @@
   </si>
   <si>
     <t>weapons sort by descending damage.png</t>
+  </si>
+  <si>
+    <t>ICanDamage.png</t>
+  </si>
+  <si>
+    <t>IHasSummary.png</t>
+  </si>
+  <si>
+    <t>Spell IHasSummary.png</t>
+  </si>
+  <si>
+    <t>Weapon IHasSummary.png</t>
+  </si>
+  <si>
+    <t>Spell.CreateSummary</t>
+  </si>
+  <si>
+    <t>Hint does not have interface.png</t>
   </si>
 </sst>
 </file>
@@ -523,7 +538,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +565,10 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -646,95 +661,114 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6CFD8-952C-42C8-AE52-E64D42D39260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FCAF2E-5C6F-4E9F-A4CA-A8A86867370A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Status</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Hint does not have interface.png</t>
+  </si>
+  <si>
+    <t>Creature Protected Access.png</t>
+  </si>
+  <si>
+    <t>Player.UseSpell.png</t>
+  </si>
+  <si>
+    <t>shows a child class making use a protected access control</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A21" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -721,52 +730,63 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FCAF2E-5C6F-4E9F-A4CA-A8A86867370A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960E06E-721E-4C48-9B22-DF164FAB3E49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Status</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>shows a child class making use a protected access control</t>
+  </si>
+  <si>
+    <t>UnitTests1.png</t>
+  </si>
+  <si>
+    <t>unit tests passed.png</t>
+  </si>
+  <si>
+    <t>testing that save and loading functioned as intended.png</t>
+  </si>
+  <si>
+    <t>test if game initialised.png</t>
+  </si>
+  <si>
+    <t>unit tests log</t>
   </si>
 </sst>
 </file>
@@ -258,12 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A20:A21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,32 +778,53 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960E06E-721E-4C48-9B22-DF164FAB3E49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F89328-B1A0-4850-9614-35BDEC1A87F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Status</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>unit tests log</t>
+  </si>
+  <si>
+    <t>testLog.png</t>
   </si>
 </sst>
 </file>
@@ -273,13 +276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +565,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,9 +810,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F89328-B1A0-4850-9614-35BDEC1A87F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E84DC6-681B-40D0-BC06-9E416ADBEFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Status</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>testLog.png</t>
+  </si>
+  <si>
+    <t>other tests class.png</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,8 +822,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E84DC6-681B-40D0-BC06-9E416ADBEFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A87B45-067C-44EA-AD6A-3D90D8625592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Status</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>other tests class.png</t>
+  </si>
+  <si>
+    <t>Tests.TestForPositiveInteger.png</t>
+  </si>
+  <si>
+    <t>Tests that the mean is positive and std dev is above zero.png</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,8 +837,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A87B45-067C-44EA-AD6A-3D90D8625592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98FF28-01B0-4869-8B63-07D2179E9231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +849,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>

--- a/Assessment Brief/Screenshots Required To Do List.xlsx
+++ b/Assessment Brief/Screenshots Required To Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Module Dev Containers\CMP1903-Object-Oriented-Programming-A02\Assessment Brief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98FF28-01B0-4869-8B63-07D2179E9231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C733427-46A7-4F3D-A500-833B83E25255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Status</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>icandamage implementation</t>
-  </si>
-  <si>
-    <t>Monster.GetAttackMessage</t>
-  </si>
-  <si>
-    <t>Dragon/Witch/Shulker/Skeleton/Warden Get Attack Message</t>
   </si>
   <si>
     <t>Show Creature protected access</t>
@@ -571,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +595,10 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,19 +616,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,25 +691,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,17 +748,28 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,9 +787,6 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -796,35 +798,38 @@
       <c r="C22" t="s">
         <v>53</v>
       </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,27 +837,6 @@
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
